--- a/meta/en/1-5-3.xlsx
+++ b/meta/en/1-5-3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="Workbook________" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист 1" sheetId="2" r:id="rId1"/>
@@ -159,12 +159,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -231,25 +239,29 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -562,7 +574,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,7 +610,7 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>28</v>
       </c>
     </row>
